--- a/docs/project/Cronograma de  actividades.xlsx
+++ b/docs/project/Cronograma de  actividades.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\OneDrive - Universidad EAFIT\Proyecto integrador 2020_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D2F04E46CFB4ACB3E20B2C5D2F8A6683EDF17" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93870490-66AE-46AC-AB90-5976F8DFE709}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4D2F04E46CFB4ACB3E20B2C5D2F8A6683EDF17" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A255C918-E0F4-4C86-AEEA-8DF2757FDB76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avances" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,60 +35,66 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
+    <t>Responsables</t>
+  </si>
+  <si>
+    <t>Porcentaje avances</t>
+  </si>
+  <si>
+    <t>Fecha Entregable</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
     <t>Avances 1</t>
   </si>
   <si>
     <t>Definición del proyecto</t>
   </si>
   <si>
-    <t>Porcentaje avances</t>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Jesus Alberto Arcia Hernandez</t>
   </si>
   <si>
     <t>Entendimiento del problema</t>
   </si>
   <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Carlos Enrique Salazar Escobar</t>
+  </si>
+  <si>
     <t>Entendimiento de los datos</t>
   </si>
   <si>
+    <t>Jefferson Adolfo Quiroz Fino</t>
+  </si>
+  <si>
+    <t>César Augusto Cardona Ortiz</t>
+  </si>
+  <si>
+    <t>Entregables:</t>
+  </si>
+  <si>
+    <t>Mauricio Jose Jimenez Sanchez</t>
+  </si>
+  <si>
     <t>Presentacion publica</t>
   </si>
   <si>
+    <t>No aplica</t>
+  </si>
+  <si>
     <t>github del proyecto</t>
   </si>
   <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>Completado</t>
-  </si>
-  <si>
     <t>Reporte-técnico-y-modelos</t>
   </si>
   <si>
-    <t>Jesus Alberto Arcia Hernandez</t>
-  </si>
-  <si>
-    <t>Integrantes</t>
-  </si>
-  <si>
-    <t>Entregables:</t>
-  </si>
-  <si>
-    <t>Carlos Enrique Salazar Escobar</t>
-  </si>
-  <si>
-    <t>Jefferson Adolfo Quiroz Fino</t>
-  </si>
-  <si>
-    <t>César Augusto Cardona Ortiz</t>
-  </si>
-  <si>
-    <t>Mauricio Jose Jimenez Sanchez</t>
-  </si>
-  <si>
-    <t>Responsables</t>
-  </si>
-  <si>
     <t>Avances 2</t>
   </si>
   <si>
@@ -96,6 +110,9 @@
     <t>Avances 3</t>
   </si>
   <si>
+    <t>modelos preliminares validados</t>
+  </si>
+  <si>
     <t>Producto-desplegado</t>
   </si>
   <si>
@@ -103,22 +120,13 @@
   </si>
   <si>
     <t>modelos finales validados</t>
-  </si>
-  <si>
-    <t>modelos preliminares validados</t>
-  </si>
-  <si>
-    <t>Fecha Entregable</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,17 +168,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -469,226 +467,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="44.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Completado">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Completado">
       <formula>NOT(ISERROR(SEARCH("Completado",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="En proceso">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="En proceso">
       <formula>NOT(ISERROR(SEARCH("En proceso",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/project/Cronograma de  actividades.xlsx
+++ b/docs/project/Cronograma de  actividades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\OneDrive - Universidad EAFIT\Proyecto integrador 2020_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\OneDrive - Universidad EAFIT\Proyecto integrador 2020_1\Proyecto Integrador\diagonal-cluster\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="64" documentId="11_AD4D2F04E46CFB4ACB3E20B2C5D2F8A6683EDF17" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A255C918-E0F4-4C86-AEEA-8DF2757FDB76}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avances" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,11 +467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
@@ -482,7 +482,7 @@
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,12 +496,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,12 +534,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -547,7 +547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -555,7 +555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -571,112 +571,112 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
